--- a/PruebasOpenMP/Libro2 (2).xlsx
+++ b/PruebasOpenMP/Libro2 (2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorge\Desktop\AC\PruebasOpenMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDA1FA60-CC07-42C2-84E3-17053670D297}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4F8EDF-8642-4313-A76E-54F7A7973D9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AF70700B-E3FF-447B-A014-7A17B3B7B667}"/>
   </bookViews>
